--- a/CONSULTA/db/flexmo_db.xlsx
+++ b/CONSULTA/db/flexmo_db.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saognaza\Desktop\flexmo\CONSULTA\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ICT" sheetId="1" r:id="rId1"/>
     <sheet name="USO GERAL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -586,12 +581,138 @@
   <si>
     <t>tbl_ict_currently_skipped</t>
   </si>
+  <si>
+    <t>tbl_user_name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>Santaguida</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>saofsant</t>
+  </si>
+  <si>
+    <t>keep the format to example</t>
+  </si>
+  <si>
+    <t>phone_ext</t>
+  </si>
+  <si>
+    <t>Company phone extension (4 numbers)</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>employee register namber</t>
+  </si>
+  <si>
+    <t>badge</t>
+  </si>
+  <si>
+    <t>employee badge namber</t>
+  </si>
+  <si>
+    <t>home_phone</t>
+  </si>
+  <si>
+    <t>(15)3318-3050</t>
+  </si>
+  <si>
+    <t>Home phone</t>
+  </si>
+  <si>
+    <t>molibe_phone</t>
+  </si>
+  <si>
+    <t>(15)99640-8034</t>
+  </si>
+  <si>
+    <t>Cellphone</t>
+  </si>
+  <si>
+    <t>e-mail</t>
+  </si>
+  <si>
+    <t>Fernando@flextronics.com</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>home_adress</t>
+  </si>
+  <si>
+    <t>Rua José Hannickel, 234</t>
+  </si>
+  <si>
+    <t>street and number</t>
+  </si>
+  <si>
+    <t>neighborhood</t>
+  </si>
+  <si>
+    <t>Vila Nicanor Marques</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Sorocaba</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>***************</t>
+  </si>
+  <si>
+    <t>password encrypted</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>technician</t>
+  </si>
+  <si>
+    <t>function in company</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>1 2 3 4</t>
+  </si>
+  <si>
+    <t>1 2 3 4 5</t>
+  </si>
+  <si>
+    <t>level_access</t>
+  </si>
+  <si>
+    <t>level access</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,7 +1024,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,7 +1059,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1115,22 +1236,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="19" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -1144,8 +1265,8 @@
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -1165,7 +1286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" s="8" t="s">
         <v>34</v>
       </c>
@@ -1214,7 +1335,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="B6" s="10" t="s">
         <v>36</v>
       </c>
@@ -1229,8 +1350,8 @@
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="21">
         <v>2</v>
       </c>
@@ -1250,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1388,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +1422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
       <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
@@ -1335,8 +1456,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" s="22">
         <v>3</v>
       </c>
@@ -1356,7 +1477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" s="8" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
@@ -1390,7 +1511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -1407,7 +1528,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
@@ -1424,7 +1545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="8" t="s">
         <v>65</v>
       </c>
@@ -1439,7 +1560,7 @@
       </c>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="B21" s="8" t="s">
         <v>69</v>
       </c>
@@ -1454,7 +1575,7 @@
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="B22" s="8" t="s">
         <v>88</v>
       </c>
@@ -1471,7 +1592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -1486,8 +1607,8 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" s="22">
         <v>4</v>
       </c>
@@ -1507,7 +1628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="B26" s="8" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1645,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="B27" s="8" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -1558,7 +1679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="B29" s="8" t="s">
         <v>25</v>
       </c>
@@ -1575,7 +1696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
@@ -1590,7 +1711,7 @@
       </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="B31" s="8" t="s">
         <v>69</v>
       </c>
@@ -1605,7 +1726,7 @@
       </c>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="B32" s="8" t="s">
         <v>88</v>
       </c>
@@ -1622,7 +1743,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="B33" s="8" t="s">
         <v>1</v>
       </c>
@@ -1637,7 +1758,7 @@
       </c>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="B34" s="8" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1773,7 @@
       </c>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
       <c r="B35" s="10" t="s">
         <v>89</v>
       </c>
@@ -1669,8 +1790,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
       <c r="A37" s="21">
         <v>5</v>
       </c>
@@ -1690,7 +1811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="B38" s="8" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1828,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="B39" s="8" t="s">
         <v>41</v>
       </c>
@@ -1724,7 +1845,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1">
       <c r="B40" s="10" t="s">
         <v>39</v>
       </c>
@@ -1739,7 +1860,7 @@
       </c>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A41" s="19"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -1747,7 +1868,7 @@
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
       <c r="A42" s="21">
         <v>6</v>
       </c>
@@ -1767,7 +1888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="B43" s="8" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +1905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
       <c r="B44" s="10" t="s">
         <v>54</v>
       </c>
@@ -1801,7 +1922,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1">
       <c r="A45" s="20"/>
       <c r="B45" s="17"/>
       <c r="C45" s="4"/>
@@ -1809,7 +1930,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1">
       <c r="A46" s="21">
         <v>7</v>
       </c>
@@ -1829,7 +1950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="B47" s="8" t="s">
         <v>0</v>
       </c>
@@ -1846,7 +1967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1">
       <c r="B48" s="10" t="s">
         <v>59</v>
       </c>
@@ -1863,14 +1984,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15.75" thickBot="1">
       <c r="B49" s="17"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1">
       <c r="A50" s="21">
         <v>8</v>
       </c>
@@ -1890,7 +2011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="B51" s="8" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +2028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15.75" thickBot="1">
       <c r="B52" s="10" t="s">
         <v>78</v>
       </c>
@@ -1924,8 +2045,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1">
       <c r="A54" s="21">
         <v>9</v>
       </c>
@@ -1945,7 +2066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="B55" s="8" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +2083,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="B56" s="8" t="s">
         <v>1</v>
       </c>
@@ -1979,7 +2100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="B57" s="8" t="s">
         <v>2</v>
       </c>
@@ -1996,7 +2117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="B58" s="8" t="s">
         <v>3</v>
       </c>
@@ -2013,7 +2134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="B59" s="8" t="s">
         <v>23</v>
       </c>
@@ -2030,7 +2151,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="B60" s="8" t="s">
         <v>25</v>
       </c>
@@ -2047,7 +2168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="B61" s="8" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2183,7 @@
       </c>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="B62" s="8" t="s">
         <v>5</v>
       </c>
@@ -2077,7 +2198,7 @@
       </c>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="B63" s="8" t="s">
         <v>87</v>
       </c>
@@ -2092,7 +2213,7 @@
       </c>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15.75" thickBot="1">
       <c r="B64" s="10" t="s">
         <v>46</v>
       </c>
@@ -2107,8 +2228,8 @@
       </c>
       <c r="F64" s="14"/>
     </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1">
       <c r="A66" s="21">
         <v>10</v>
       </c>
@@ -2128,7 +2249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="B67" s="8" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="B68" s="8" t="s">
         <v>58</v>
       </c>
@@ -2162,7 +2283,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15.75" thickBot="1">
       <c r="B69" s="10" t="s">
         <v>54</v>
       </c>
@@ -2179,8 +2300,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1">
       <c r="A71" s="21">
         <v>11</v>
       </c>
@@ -2200,7 +2321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="B72" s="8" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="B73" s="8" t="s">
         <v>58</v>
       </c>
@@ -2234,7 +2355,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="B74" s="8" t="s">
         <v>59</v>
       </c>
@@ -2251,7 +2372,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15.75" thickBot="1">
       <c r="B75" s="10" t="s">
         <v>46</v>
       </c>
@@ -2268,8 +2389,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1">
       <c r="A77" s="21">
         <v>12</v>
       </c>
@@ -2289,7 +2410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="B78" s="8" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2427,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="B79" s="8" t="s">
         <v>58</v>
       </c>
@@ -2323,7 +2444,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="B80" s="8" t="s">
         <v>57</v>
       </c>
@@ -2340,7 +2461,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="B81" s="8" t="s">
         <v>61</v>
       </c>
@@ -2353,7 +2474,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="15"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="B82" s="8" t="s">
         <v>62</v>
       </c>
@@ -2370,8 +2491,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="84" spans="1:6" ht="15.75" thickBot="1">
       <c r="A84" s="21">
         <v>13</v>
       </c>
@@ -2391,7 +2512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="B85" s="8" t="s">
         <v>0</v>
       </c>
@@ -2408,7 +2529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="B86" s="8" t="s">
         <v>58</v>
       </c>
@@ -2425,7 +2546,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="B87" s="8" t="s">
         <v>70</v>
       </c>
@@ -2442,7 +2563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="B88" s="8" t="s">
         <v>74</v>
       </c>
@@ -2459,7 +2580,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="B89" s="8" t="s">
         <v>82</v>
       </c>
@@ -2476,8 +2597,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1">
       <c r="A91" s="21">
         <v>14</v>
       </c>
@@ -2497,7 +2618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="B92" s="8" t="s">
         <v>0</v>
       </c>
@@ -2514,7 +2635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="B93" s="8" t="s">
         <v>58</v>
       </c>
@@ -2531,7 +2652,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="B94" s="8" t="s">
         <v>65</v>
       </c>
@@ -2548,7 +2669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15.75" thickBot="1">
       <c r="B95" s="10" t="s">
         <v>69</v>
       </c>
@@ -2570,25 +2691,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -2608,7 +2729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="19"/>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -2626,7 +2747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
         <v>5</v>
@@ -2644,10 +2765,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="19"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -2667,7 +2788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
         <v>0</v>
@@ -2685,7 +2806,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="19"/>
       <c r="B8" s="8" t="s">
         <v>3</v>
@@ -2701,7 +2822,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="19"/>
       <c r="B9" s="8" t="s">
         <v>23</v>
@@ -2719,7 +2840,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
       <c r="A10" s="19"/>
       <c r="B10" s="10" t="s">
         <v>25</v>
@@ -2737,10 +2858,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
       <c r="A11" s="19"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="21">
         <v>3</v>
       </c>
@@ -2760,7 +2881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="19"/>
       <c r="B13" s="8" t="s">
         <v>0</v>
@@ -2778,7 +2899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
       <c r="A14" s="19"/>
       <c r="B14" s="10" t="s">
         <v>23</v>
@@ -2796,10 +2917,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" s="19"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="21">
         <v>4</v>
       </c>
@@ -2819,7 +2940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="19"/>
       <c r="B17" s="8" t="s">
         <v>0</v>
@@ -2837,7 +2958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
       <c r="A18" s="19"/>
       <c r="B18" s="10" t="s">
         <v>25</v>
@@ -2853,6 +2974,318 @@
       </c>
       <c r="F18" s="14" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A20" s="21">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="19"/>
+      <c r="B21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B23" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13">
+        <v>3782</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B26" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="13">
+        <v>12345678</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B27" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="13">
+        <v>12345679</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B28" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B29" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B30" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B31" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B32" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B33" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B34" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B35" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B36" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B37" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/CONSULTA/db/flexmo_db.xlsx
+++ b/CONSULTA/db/flexmo_db.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swInstalados\xampp\htdocs\flexmo\CONSULTA\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1170" activeTab="1"/>
   </bookViews>
@@ -11,8 +16,8 @@
     <sheet name="USO GERAL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -707,12 +712,48 @@
   <si>
     <t>level access</t>
   </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Varchar</t>
+  </si>
+  <si>
+    <t>Smallint</t>
+  </si>
+  <si>
+    <t>Tinyint</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Unsigned</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>A_I</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -964,6 +1005,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,14 +1292,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F95"/>
   <sheetViews>
@@ -1251,7 +1307,7 @@
       <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="19" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -1265,8 +1321,8 @@
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -1286,7 +1342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1320,7 +1376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>34</v>
       </c>
@@ -1335,7 +1391,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>36</v>
       </c>
@@ -1350,8 +1406,8 @@
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>2</v>
       </c>
@@ -1371,7 +1427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1444,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +1461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
@@ -1422,7 +1478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
@@ -1439,7 +1495,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
@@ -1456,8 +1512,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>3</v>
       </c>
@@ -1477,7 +1533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1550,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +1567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -1528,7 +1584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
@@ -1545,7 +1601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>65</v>
       </c>
@@ -1560,7 +1616,7 @@
       </c>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>69</v>
       </c>
@@ -1575,7 +1631,7 @@
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>88</v>
       </c>
@@ -1592,7 +1648,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -1607,8 +1663,8 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>4</v>
       </c>
@@ -1628,7 +1684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>3</v>
       </c>
@@ -1662,7 +1718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -1679,7 +1735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>25</v>
       </c>
@@ -1696,7 +1752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
@@ -1711,7 +1767,7 @@
       </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>69</v>
       </c>
@@ -1726,7 +1782,7 @@
       </c>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>88</v>
       </c>
@@ -1743,7 +1799,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>1</v>
       </c>
@@ -1758,7 +1814,7 @@
       </c>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>2</v>
       </c>
@@ -1773,7 +1829,7 @@
       </c>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>89</v>
       </c>
@@ -1790,8 +1846,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>5</v>
       </c>
@@ -1811,7 +1867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>41</v>
       </c>
@@ -1845,7 +1901,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>39</v>
       </c>
@@ -1860,7 +1916,7 @@
       </c>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1">
+    <row r="41" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -1868,7 +1924,7 @@
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>6</v>
       </c>
@@ -1888,7 +1944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>0</v>
       </c>
@@ -1905,7 +1961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>54</v>
       </c>
@@ -1922,7 +1978,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="17"/>
       <c r="C45" s="4"/>
@@ -1930,7 +1986,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <v>7</v>
       </c>
@@ -1950,7 +2006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +2023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>59</v>
       </c>
@@ -1984,14 +2040,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1">
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="17"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
         <v>8</v>
       </c>
@@ -2011,7 +2067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>0</v>
       </c>
@@ -2028,7 +2084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1">
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>78</v>
       </c>
@@ -2045,8 +2101,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1">
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21">
         <v>9</v>
       </c>
@@ -2066,7 +2122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>0</v>
       </c>
@@ -2083,7 +2139,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>1</v>
       </c>
@@ -2100,7 +2156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>2</v>
       </c>
@@ -2117,7 +2173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>3</v>
       </c>
@@ -2134,7 +2190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>23</v>
       </c>
@@ -2151,7 +2207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>25</v>
       </c>
@@ -2168,7 +2224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>4</v>
       </c>
@@ -2183,7 +2239,7 @@
       </c>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>5</v>
       </c>
@@ -2198,7 +2254,7 @@
       </c>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>87</v>
       </c>
@@ -2213,7 +2269,7 @@
       </c>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1">
+    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>46</v>
       </c>
@@ -2228,8 +2284,8 @@
       </c>
       <c r="F64" s="14"/>
     </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1">
+    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
         <v>10</v>
       </c>
@@ -2249,7 +2305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>0</v>
       </c>
@@ -2266,7 +2322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>58</v>
       </c>
@@ -2283,7 +2339,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1">
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>54</v>
       </c>
@@ -2300,8 +2356,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1">
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="21">
         <v>11</v>
       </c>
@@ -2321,7 +2377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>58</v>
       </c>
@@ -2355,7 +2411,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>59</v>
       </c>
@@ -2372,7 +2428,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1">
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>46</v>
       </c>
@@ -2389,8 +2445,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21">
         <v>12</v>
       </c>
@@ -2410,7 +2466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>0</v>
       </c>
@@ -2427,7 +2483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>58</v>
       </c>
@@ -2444,7 +2500,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>57</v>
       </c>
@@ -2461,7 +2517,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>61</v>
       </c>
@@ -2474,7 +2530,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="15"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>62</v>
       </c>
@@ -2491,8 +2547,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1">
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
         <v>13</v>
       </c>
@@ -2512,7 +2568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>58</v>
       </c>
@@ -2546,7 +2602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>70</v>
       </c>
@@ -2563,7 +2619,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>74</v>
       </c>
@@ -2580,7 +2636,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>82</v>
       </c>
@@ -2597,8 +2653,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
         <v>14</v>
       </c>
@@ -2618,7 +2674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2691,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
         <v>58</v>
       </c>
@@ -2652,7 +2708,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>65</v>
       </c>
@@ -2669,7 +2725,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1">
+    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>69</v>
       </c>
@@ -2691,25 +2747,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -2720,16 +2781,31 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -2737,17 +2813,22 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1">
         <v>12345</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
         <v>5</v>
@@ -2755,20 +2836,25 @@
       <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -2779,16 +2865,31 @@
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
         <v>0</v>
@@ -2796,17 +2897,22 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1">
         <v>12345</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="8" t="s">
         <v>3</v>
@@ -2814,15 +2920,20 @@
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="8" t="s">
         <v>23</v>
@@ -2830,17 +2941,22 @@
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="10" t="s">
         <v>25</v>
@@ -2848,20 +2964,25 @@
       <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>3</v>
       </c>
@@ -2872,16 +2993,31 @@
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="8" t="s">
         <v>0</v>
@@ -2889,17 +3025,22 @@
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1">
         <v>12345</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="10" t="s">
         <v>23</v>
@@ -2907,20 +3048,25 @@
       <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="K14" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>4</v>
       </c>
@@ -2931,16 +3077,31 @@
         <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="8" t="s">
         <v>0</v>
@@ -2948,17 +3109,22 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1">
         <v>12345</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="K17" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="10" t="s">
         <v>25</v>
@@ -2966,19 +3132,24 @@
       <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="K18" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A20" s="21">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
         <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2988,303 +3159,445 @@
         <v>6</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1">
+        <v>156</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="1">
         <v>12345</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="K21" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="C22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="3">
+        <v>255</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="K22" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="3">
+        <v>255</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="K23" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="C24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="3">
+        <v>255</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="K24" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="13">
+        <v>158</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="3">
         <v>3782</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="K25" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B26" s="10" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="13">
+        <v>156</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="3">
         <v>12345678</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="K26" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="13">
+        <v>156</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="3">
         <v>12345679</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="K27" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B28" s="10" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="C28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="K28" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B29" s="10" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="K29" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B30" s="10" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="3">
+        <v>255</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="K30" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B31" s="10" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="13" t="s">
+      <c r="C31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="3">
+        <v>255</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="K31" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B32" s="10" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="C32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="3">
+        <v>255</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="K32" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="13" t="s">
+      <c r="C33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="3">
+        <v>255</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="K33" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B34" s="10" t="s">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="13" t="s">
+      <c r="C34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="3">
+        <v>255</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="K34" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B35" s="10" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="13" t="s">
+      <c r="C35" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="3">
+        <v>255</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="K35" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B36" s="10" t="s">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="K36" s="15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15.75" thickBot="1">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="13" t="s">
+      <c r="C37" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="K37" s="14" t="s">
         <v>155</v>
       </c>
     </row>

--- a/CONSULTA/db/flexmo_db.xlsx
+++ b/CONSULTA/db/flexmo_db.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swInstalados\xampp\htdocs\flexmo\CONSULTA\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flexmo\CONSULTA\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -169,38 +169,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>tbl_products</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">refer to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tbl_account</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">refer to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tbl_product_category</t>
     </r>
   </si>
   <si>
@@ -747,6 +715,12 @@
   </si>
   <si>
     <t>A_I</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
 </sst>
 </file>
@@ -797,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -968,11 +942,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1020,6 +1072,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,10 +1368,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,11 +1390,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -1391,79 +1458,77 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1">
-        <v>12345</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
+      <c r="E10" s="1">
+        <v>12345</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -1472,104 +1537,104 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="F13" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="C14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="F14" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
         <v>3</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1">
-        <v>12345</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
+      <c r="E17" s="1">
+        <v>12345</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -1578,15 +1643,15 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -1595,15 +1660,13 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>45</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -1612,13 +1675,13 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -1627,83 +1690,85 @@
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="F21" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="C22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="23">
         <v>20150209112100</v>
       </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
         <v>4</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="1">
-        <v>12345</v>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -1712,15 +1777,13 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -1729,15 +1792,13 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -1746,15 +1807,15 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -1762,344 +1823,342 @@
       <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>84</v>
+      <c r="E30" s="2">
+        <v>20150209112100</v>
       </c>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2">
+        <v>20150209112100</v>
       </c>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
+        <v>5</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="22">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="13">
+        <v>1</v>
+      </c>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="13">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2">
-        <v>20150209112100</v>
-      </c>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="2">
-        <v>20150209112100</v>
-      </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21">
-        <v>5</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="17"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
+        <v>8</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1">
         <v>12345</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1">
-        <v>12345</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21">
-        <v>6</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="1">
-        <v>12345</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21">
-        <v>7</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="1">
-        <v>12345</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="17"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21">
-        <v>8</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1">
-        <v>12345</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>38</v>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="E52" s="13">
+        <v>1</v>
+      </c>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2107,7 +2166,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>6</v>
@@ -2192,7 +2251,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>20</v>
@@ -2201,15 +2260,13 @@
         <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>20</v>
@@ -2218,291 +2275,289 @@
         <v>11</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="3" t="s">
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="9"/>
-    </row>
+      <c r="E62" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="13" t="s">
+      <c r="A64" s="21">
         <v>10</v>
       </c>
-      <c r="E64" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
-        <v>10</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="6" t="s">
+      <c r="B64" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="8" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="1">
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1">
         <v>12345</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F65" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="3" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="1">
+      <c r="D66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1">
         <v>12345</v>
       </c>
-      <c r="F68" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
+      <c r="F66" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21">
-        <v>11</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="6" t="s">
+      <c r="A69" s="21">
+        <v>11</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="21">
+        <v>12</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="1">
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="1">
         <v>12345</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F76" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="3" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="1">
+      <c r="D77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="1">
         <v>12345</v>
       </c>
-      <c r="F73" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21">
-        <v>12</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>9</v>
+      <c r="F77" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="1">
-        <v>12345</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="1">
-        <v>12345</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>104</v>
-      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="15"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>20</v>
@@ -2511,234 +2566,204 @@
         <v>11</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="15"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="21">
+    </row>
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="21">
         <v>13</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B82" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F84" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="1">
-        <v>12345</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="1">
-        <v>12345</v>
+      <c r="E86" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="21">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="21">
         <v>14</v>
       </c>
-      <c r="B91" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" s="6" t="s">
+      <c r="B89" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F89" s="7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="1">
+        <v>12345</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="1">
-        <v>12345</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="1">
-        <v>12345</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="3" t="s">
+    </row>
+    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E93" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F94" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F95" s="14"/>
+      <c r="F93" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2748,15 +2773,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
@@ -2774,169 +2799,167 @@
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="37">
         <v>12345</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
+      <c r="B5" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="G7" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="H7" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="1">
-        <v>12345</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1">
+        <v>12345</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -2950,451 +2973,434 @@
         <v>11</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="10" t="s">
+      <c r="K10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="13" t="s">
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="K11" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="19"/>
+      <c r="B12" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1">
+        <v>12345</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1">
+        <v>12345</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="F24" s="25"/>
+      <c r="G24" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="1">
         <v>12345</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K24" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="1">
-        <v>12345</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="3">
+        <v>255</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="1">
-        <v>12345</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="8" t="s">
+      <c r="K25" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="3">
-        <v>255</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="3">
-        <v>255</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="3">
-        <v>255</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="3">
-        <v>3782</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+        <v>118</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="3">
+        <v>255</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="3">
-        <v>12345678</v>
+      <c r="J26" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+        <v>85</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="3">
+        <v>255</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="3">
-        <v>12345679</v>
+      <c r="J27" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>130</v>
+      <c r="J28" s="3">
+        <v>3782</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
@@ -3402,91 +3408,93 @@
       <c r="I29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>133</v>
+      <c r="J29" s="3">
+        <v>12345678</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="3">
-        <v>255</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+        <v>125</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>136</v>
+      <c r="J30" s="3">
+        <v>12345679</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="3">
-        <v>255</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+        <v>127</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="3">
-        <v>255</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+        <v>130</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D33" s="3">
         <v>255</v>
@@ -3498,19 +3506,19 @@
       <c r="I33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>144</v>
+      <c r="J33" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D34" s="3">
         <v>255</v>
@@ -3523,18 +3531,18 @@
         <v>11</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D35" s="3">
         <v>255</v>
@@ -3547,59 +3555,150 @@
         <v>11</v>
       </c>
       <c r="J35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="3">
+        <v>255</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="3">
+        <v>255</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="3">
+        <v>255</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="C39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+      <c r="K39" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" s="13" t="s">
+      <c r="K40" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="K37" s="14" t="s">
-        <v>155</v>
-      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11">
+        <v>1</v>
+      </c>
+      <c r="K41" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
